--- a/Data_frame/balancos_definitivos/DAYC3.xlsx
+++ b/Data_frame/balancos_definitivos/DAYC3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV79"/>
+  <dimension ref="A1:AS79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,21 +659,6 @@
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2018</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>30/06/2018</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>30/09/2018</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -813,15 +798,6 @@
       <c r="AS2" t="n">
         <v>24230979.584</v>
       </c>
-      <c r="AT2" t="n">
-        <v>33809195.008</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>38068793.344</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>39597264.896</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -961,15 +937,6 @@
       <c r="AS3" t="n">
         <v>15055548.416</v>
       </c>
-      <c r="AT3" t="n">
-        <v>7338117.12</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8607907.84</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>9231574.016000001</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1109,15 +1076,6 @@
       <c r="AS4" t="n">
         <v>114709</v>
       </c>
-      <c r="AT4" t="n">
-        <v>1555629.056</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>2001026.944</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>2166205.952</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1257,15 +1215,6 @@
       <c r="AS5" t="n">
         <v>4628899.84</v>
       </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1405,15 +1354,6 @@
       <c r="AS6" t="n">
         <v>87505</v>
       </c>
-      <c r="AT6" t="n">
-        <v>1443364.992</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>1565558.016</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>1743352.064</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1553,15 +1493,6 @@
       <c r="AS7" t="n">
         <v>148723.008</v>
       </c>
-      <c r="AT7" t="n">
-        <v>3605017.088</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>4318345.216</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>4529342.976</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1701,15 +1632,6 @@
       <c r="AS8" t="n">
         <v>0</v>
       </c>
-      <c r="AT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1849,15 +1771,6 @@
       <c r="AS9" t="n">
         <v>6400449.024</v>
       </c>
-      <c r="AT9" t="n">
-        <v>479840.992</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>451567.008</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>486463.008</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1997,15 +1910,6 @@
       <c r="AS10" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" t="n">
-        <v>93492</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>101366</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>114856</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2145,15 +2049,6 @@
       <c r="AS11" t="n">
         <v>3541216</v>
       </c>
-      <c r="AT11" t="n">
-        <v>160772.992</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>170044.992</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>191354</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2293,15 +2188,6 @@
       <c r="AS12" t="n">
         <v>134046</v>
       </c>
-      <c r="AT12" t="n">
-        <v>1612630.016</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>1748978.944</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>1727640.064</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2441,15 +2327,6 @@
       <c r="AS13" t="n">
         <v>8025825.792</v>
       </c>
-      <c r="AT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2589,15 +2466,6 @@
       <c r="AS14" t="n">
         <v>16468</v>
       </c>
-      <c r="AT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2737,15 +2605,6 @@
       <c r="AS15" t="n">
         <v>1316295.936</v>
       </c>
-      <c r="AT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2885,15 +2744,6 @@
       <c r="AS16" t="n">
         <v>0</v>
       </c>
-      <c r="AT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3033,15 +2883,6 @@
       <c r="AS17" t="n">
         <v>0</v>
       </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3181,15 +3022,6 @@
       <c r="AS18" t="n">
         <v>4522352.128</v>
       </c>
-      <c r="AT18" t="n">
-        <v>458161.984</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3329,15 +3161,6 @@
       <c r="AS19" t="n">
         <v>0</v>
       </c>
-      <c r="AT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>529216.992</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>540379.008</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3477,15 +3300,6 @@
       <c r="AS20" t="n">
         <v>2086477.056</v>
       </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3625,15 +3439,6 @@
       <c r="AS21" t="n">
         <v>84233</v>
       </c>
-      <c r="AT21" t="n">
-        <v>1154467.968</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3773,15 +3578,6 @@
       <c r="AS22" t="n">
         <v>1149606.016</v>
       </c>
-      <c r="AT22" t="n">
-        <v>118866</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>138895.008</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>139616</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3921,15 +3717,6 @@
       <c r="AS23" t="n">
         <v>1067337.984</v>
       </c>
-      <c r="AT23" t="n">
-        <v>2244613.888</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>2561809.92</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>2673314.048</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4069,15 +3856,6 @@
       <c r="AS24" t="n">
         <v>82268</v>
       </c>
-      <c r="AT24" t="n">
-        <v>22494967.808</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>25011200</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>25825120.256</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -4217,15 +3995,6 @@
       <c r="AS25" t="n">
         <v>0</v>
       </c>
-      <c r="AT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -4365,15 +4134,6 @@
       <c r="AS26" t="n">
         <v>0</v>
       </c>
-      <c r="AT26" t="n">
-        <v>33809195.008</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>38068793.344</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>39597264.896</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -4513,15 +4273,6 @@
       <c r="AS27" t="n">
         <v>0</v>
       </c>
-      <c r="AT27" t="n">
-        <v>5587443.2</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>7178976.768</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>7906144.768</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -4661,15 +4412,6 @@
       <c r="AS28" t="n">
         <v>24230979.584</v>
       </c>
-      <c r="AT28" t="n">
-        <v>581358.976</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>590638.0159999999</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>623921.024</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -4809,15 +4551,6 @@
       <c r="AS29" t="n">
         <v>10767652.864</v>
       </c>
-      <c r="AT29" t="n">
-        <v>2163342.08</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>2981784.064</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>3096984.064</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4957,15 +4690,6 @@
       <c r="AS30" t="n">
         <v>3585126.912</v>
       </c>
-      <c r="AT30" t="n">
-        <v>598014.0159999999</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>725566.976</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>815734.0159999999</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -5105,15 +4829,6 @@
       <c r="AS31" t="n">
         <v>1860115.968</v>
       </c>
-      <c r="AT31" t="n">
-        <v>261907.008</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>301185.984</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>308984</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -5253,15 +4968,6 @@
       <c r="AS32" t="n">
         <v>3545361.92</v>
       </c>
-      <c r="AT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -5401,15 +5107,6 @@
       <c r="AS33" t="n">
         <v>1906</v>
       </c>
-      <c r="AT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -5549,15 +5246,6 @@
       <c r="AS34" t="n">
         <v>63797</v>
       </c>
-      <c r="AT34" t="n">
-        <v>1794594.048</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>2396589.056</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>2852528.896</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -5697,15 +5385,6 @@
       <c r="AS35" t="n">
         <v>759308.992</v>
       </c>
-      <c r="AT35" t="n">
-        <v>188227.008</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>183212.992</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>207992.992</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -5845,15 +5524,6 @@
       <c r="AS36" t="n">
         <v>264747.008</v>
       </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -5993,15 +5663,6 @@
       <c r="AS37" t="n">
         <v>0</v>
       </c>
-      <c r="AT37" t="n">
-        <v>14950256.64</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>16685523.968</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>17234505.728</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6141,15 +5802,6 @@
       <c r="AS38" t="n">
         <v>687289.024</v>
       </c>
-      <c r="AT38" t="n">
-        <v>12418078.72</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>13967462.4</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>14584981.504</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6289,15 +5941,6 @@
       <c r="AS39" t="n">
         <v>10415772.672</v>
       </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -6437,15 +6080,6 @@
       <c r="AS40" t="n">
         <v>1567367.936</v>
       </c>
-      <c r="AT40" t="n">
-        <v>600272</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>589139.968</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>481335.008</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -6585,15 +6219,6 @@
       <c r="AS41" t="n">
         <v>0</v>
       </c>
-      <c r="AT41" t="n">
-        <v>1581827.968</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>1748683.008</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>1808621.056</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -6733,15 +6358,6 @@
       <c r="AS42" t="n">
         <v>5448491.008</v>
       </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -6881,15 +6497,6 @@
       <c r="AS43" t="n">
         <v>0</v>
       </c>
-      <c r="AT43" t="n">
-        <v>350078.016</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>380239.008</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>359568</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -7029,15 +6636,6 @@
       <c r="AS44" t="n">
         <v>0</v>
       </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -7177,15 +6775,6 @@
       <c r="AS45" t="n">
         <v>973244.032</v>
       </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -7325,15 +6914,6 @@
       <c r="AS46" t="n">
         <v>207271.008</v>
       </c>
-      <c r="AT46" t="n">
-        <v>1527250.048</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>1820678.016</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>1859288.064</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -7473,15 +7053,6 @@
       <c r="AS47" t="n">
         <v>0</v>
       </c>
-      <c r="AT47" t="n">
-        <v>11744244.608</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>12383612.032</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>12597323.776</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -7621,15 +7192,6 @@
       <c r="AS48" t="n">
         <v>2219398.912</v>
       </c>
-      <c r="AT48" t="n">
-        <v>679139.008</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>679139.008</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>679139.008</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -7769,15 +7331,6 @@
       <c r="AS49" t="n">
         <v>38526</v>
       </c>
-      <c r="AT49" t="n">
-        <v>11331649.536</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>11002027.008</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>10253003.776</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7917,15 +7470,6 @@
       <c r="AS50" t="n">
         <v>0</v>
       </c>
-      <c r="AT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -8065,15 +7609,6 @@
       <c r="AS51" t="n">
         <v>3009028.096</v>
       </c>
-      <c r="AT51" t="n">
-        <v>-3106563.072</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>-3726194.944</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>-3316568.064</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -8213,15 +7748,6 @@
       <c r="AS52" t="n">
         <v>1892142.976</v>
       </c>
-      <c r="AT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -8361,15 +7887,6 @@
       <c r="AS53" t="n">
         <v>0</v>
       </c>
-      <c r="AT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -8509,15 +8026,6 @@
       <c r="AS54" t="n">
         <v>0</v>
       </c>
-      <c r="AT54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -8657,15 +8165,6 @@
       <c r="AS55" t="n">
         <v>1111763.968</v>
       </c>
-      <c r="AT55" t="n">
-        <v>2840018.944</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>4428640.768</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>4981749.248</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -8805,15 +8304,6 @@
       <c r="AS56" t="n">
         <v>5121</v>
       </c>
-      <c r="AT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -8953,15 +8443,6 @@
       <c r="AS57" t="n">
         <v>0</v>
       </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9101,15 +8582,6 @@
       <c r="AS58" t="n">
         <v>957541.12</v>
       </c>
-      <c r="AT58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV58" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9249,15 +8721,6 @@
       <c r="AS59" t="n">
         <v>-494733.056</v>
       </c>
-      <c r="AT59" t="n">
-        <v>6275369.984</v>
-      </c>
-      <c r="AU59" t="n">
-        <v>8319880.192</v>
-      </c>
-      <c r="AV59" t="n">
-        <v>10031723.52</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9397,15 +8860,6 @@
       <c r="AS60" t="n">
         <v>462808</v>
       </c>
-      <c r="AT60" t="n">
-        <v>-2517414.912</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>-3348285.952</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>-3996516.096</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9545,15 +8999,6 @@
       <c r="AS61" t="n">
         <v>-233853.024</v>
       </c>
-      <c r="AT61" t="n">
-        <v>3757955.072</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>4971594.24</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>6035208.192</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9693,15 +9138,6 @@
       <c r="AS62" t="n">
         <v>38320</v>
       </c>
-      <c r="AT62" t="n">
-        <v>-1804317.056</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>-2470173.952</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>-3025728</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9841,15 +9277,6 @@
       <c r="AS63" t="n">
         <v>-71959.008</v>
       </c>
-      <c r="AT63" t="n">
-        <v>-1784758.016</v>
-      </c>
-      <c r="AU63" t="n">
-        <v>-1994006.016</v>
-      </c>
-      <c r="AV63" t="n">
-        <v>-2207145.984</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9989,15 +9416,6 @@
       <c r="AS64" t="n">
         <v>-122877.984</v>
       </c>
-      <c r="AT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV64" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -10137,15 +9555,6 @@
       <c r="AS65" t="n">
         <v>-28719</v>
       </c>
-      <c r="AT65" t="n">
-        <v>3014</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>5276</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>8877</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -10285,15 +9694,6 @@
       <c r="AS66" t="n">
         <v>16340</v>
       </c>
-      <c r="AT66" t="n">
-        <v>-178988.992</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>-47866</v>
-      </c>
-      <c r="AV66" t="n">
-        <v>9178</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -10433,15 +9833,6 @@
       <c r="AS67" t="n">
         <v>-74494.992</v>
       </c>
-      <c r="AT67" t="n">
-        <v>2283</v>
-      </c>
-      <c r="AU67" t="n">
-        <v>2274</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>7023</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -10581,15 +9972,6 @@
       <c r="AS68" t="n">
         <v>9538</v>
       </c>
-      <c r="AT68" t="n">
-        <v>-108223</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>-119260</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>-144058</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -10729,15 +10111,6 @@
       <c r="AS69" t="n">
         <v>228954.944</v>
       </c>
-      <c r="AT69" t="n">
-        <v>42070</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>51575</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>21727</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -10877,15 +10250,6 @@
       <c r="AS70" t="n">
         <v>1116</v>
       </c>
-      <c r="AT70" t="n">
-        <v>-150292.992</v>
-      </c>
-      <c r="AU70" t="n">
-        <v>-170835.008</v>
-      </c>
-      <c r="AV70" t="n">
-        <v>-165784.992</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -11025,15 +10389,6 @@
       <c r="AS71" t="n">
         <v>4459</v>
       </c>
-      <c r="AT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU71" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV71" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -11173,15 +10528,6 @@
       <c r="AS72" t="n">
         <v>-3343</v>
       </c>
-      <c r="AT72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV72" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -11321,15 +10667,6 @@
       <c r="AS73" t="n">
         <v>230071.04</v>
       </c>
-      <c r="AT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV73" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -11469,15 +10806,6 @@
       <c r="AS74" t="n">
         <v>-77007.008</v>
       </c>
-      <c r="AT74" t="n">
-        <v>-113035</v>
-      </c>
-      <c r="AU74" t="n">
-        <v>347838.016</v>
-      </c>
-      <c r="AV74" t="n">
-        <v>683353.9840000001</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -11617,15 +10945,6 @@
       <c r="AS75" t="n">
         <v>-2939</v>
       </c>
-      <c r="AT75" t="n">
-        <v>-78678</v>
-      </c>
-      <c r="AU75" t="n">
-        <v>-135283.008</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>-185308.992</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -11765,15 +11084,6 @@
       <c r="AS76" t="n">
         <v>-20164</v>
       </c>
-      <c r="AT76" t="n">
-        <v>35083</v>
-      </c>
-      <c r="AU76" t="n">
-        <v>9250</v>
-      </c>
-      <c r="AV76" t="n">
-        <v>651</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -11913,15 +11223,6 @@
       <c r="AS77" t="n">
         <v>0</v>
       </c>
-      <c r="AT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -12061,15 +11362,6 @@
       <c r="AS78" t="n">
         <v>0</v>
       </c>
-      <c r="AT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU78" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -12208,15 +11500,6 @@
       </c>
       <c r="AS79" t="n">
         <v>129960.96</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>-6503</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>-78542</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>-104606</v>
       </c>
     </row>
   </sheetData>
